--- a/1_Regression/FamilyCitySpendings.xlsx
+++ b/1_Regression/FamilyCitySpendings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjubran/Downloads/MachineLearning/1_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12328B09-09E8-F045-BF93-3D109121DA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{410A9D1F-6B10-C644-930A-FF8DFE70FCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>Annual Income</t>
   </si>
@@ -884,15 +884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -909,7 +909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -925,12 +925,8 @@
       <c r="E2">
         <v>11300</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F28" si="0">E2/B2</f>
-        <v>0.7533333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -946,119 +942,95 @@
       <c r="E3">
         <v>11800</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.73750000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>27500</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>31500</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>26600</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28100</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>17000</v>
       </c>
-      <c r="C4">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>12400</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.72941176470588232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-      <c r="B5">
-        <v>28000</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>21400</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.76428571428571423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>27000</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>20900</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.77407407407407403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>27500</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>21100</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.76727272727272722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>27000</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>22900</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.8481481481481481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
       </c>
       <c r="B9">
         <v>28000</v>
@@ -1067,355 +1039,287 @@
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>27000</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>27500</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>21100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>27000</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>23400</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.83571428571428574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>26000</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>22300</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.85769230769230764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>25000</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>21800</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>28000</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
       <c r="E12">
-        <v>25400</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.90714285714285714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>26000</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.89655172413793105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>26500</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.8833333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>25400</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.90714285714285714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>29100</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.93870967741935485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
+        <v>29000</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
         <v>30000</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>28500</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>32000</v>
-      </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>29600</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>32200</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.97575757575757571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>31100</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0.91470588235294115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
+        <v>30000</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
         <v>32000</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>33000</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="E23">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>34000</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>31100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>32000</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
         <v>31600</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0.98750000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>6</v>
-      </c>
-      <c r="B22">
-        <v>36000</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>30800</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0.85555555555555551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>38000</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>31900</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0.83947368421052626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>37000</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>31400</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0.84864864864864864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>40000</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>33000</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
       </c>
       <c r="B26">
         <v>36000</v>
@@ -1424,56 +1328,112 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>28800</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>28300</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0.80857142857142861</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>39000</v>
+        <v>37000</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>40000</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>36000</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E30">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>35000</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>39000</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>30500</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0.78205128205128205</v>
       </c>
     </row>
   </sheetData>

--- a/1_Regression/FamilyCitySpendings.xlsx
+++ b/1_Regression/FamilyCitySpendings.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjubran/Downloads/MachineLearning/1_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{410A9D1F-6B10-C644-930A-FF8DFE70FCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3633F592-66E0-A049-80FA-21F53C498DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FamilyCitySpendings" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -883,11 +883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>22900</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>23400</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>22900</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>23400</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>22300</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>21800</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1217,7 +1217,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>31000</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>30000</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>37000</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>40000</v>
